--- a/BING690 HW & TESTS/Assigment 4 Rafael Villasmil BINF690 Fall 2020.xlsx
+++ b/BING690 HW & TESTS/Assigment 4 Rafael Villasmil BINF690 Fall 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villasmilr\Documents\GitHub\BINF690\BING690 HW &amp; TESTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\villasmilr\Documents\GitHub\Assignments BINF690\BING690 HW &amp; TESTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D71CC9-4AE8-4B6D-8C79-7E020C865E43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CBBA34-14A7-4628-85E5-CA4522B833C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7635" yWindow="1905" windowWidth="18000" windowHeight="12210" activeTab="1" xr2:uid="{2EBC77DF-5C91-B74F-8CFA-29CA2AEE932E}"/>
+    <workbookView xWindow="46680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2EBC77DF-5C91-B74F-8CFA-29CA2AEE932E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D8DD9E-9A8F-7E4A-9481-A5E5EE09FA97}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -887,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340C397C-AEC0-487F-A69D-4178CDE61F74}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
